--- a/Data/Processed/Angiosperms/missing_powo_ipni/Limnocharitaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Limnocharitaceae.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -630,7 +630,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -916,7 +916,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1664,7 +1664,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1862,7 +1862,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2335,7 +2335,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2918,7 +2918,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3116,7 +3116,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3259,7 +3259,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3402,7 +3402,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3600,7 +3600,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4128,7 +4128,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4381,7 +4381,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -4579,7 +4579,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -5712,7 +5712,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -6075,7 +6075,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -6493,7 +6493,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -6636,7 +6636,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -7857,7 +7857,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -8000,7 +8000,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -8693,7 +8693,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -9606,7 +9606,7 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -10244,7 +10244,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -10442,7 +10442,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -10640,7 +10640,7 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -10728,7 +10728,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -11256,7 +11256,7 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -11564,7 +11564,7 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -11982,7 +11982,7 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -12125,7 +12125,7 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -12433,7 +12433,7 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -12576,7 +12576,7 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
@@ -13706,7 +13706,7 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
@@ -13904,7 +13904,7 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
@@ -14707,7 +14707,7 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
